--- a/data/raw/sales/Week 6/Nexlev/other_channels.xlsx
+++ b/data/raw/sales/Week 6/Nexlev/other_channels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\data\raw\sales\Week 6\Nexlev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC9E069-35CF-4B47-B146-09BD3D2E5184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5957C6CF-D2E1-4B2C-BEC5-93E9CD75C1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00DB3424-A17B-4A18-BC6A-329A1F1119CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00DB3424-A17B-4A18-BC6A-329A1F1119CF}"/>
   </bookViews>
   <sheets>
     <sheet name="CRED_B2C" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="199">
   <si>
     <t>Brand</t>
   </si>
@@ -643,13 +643,16 @@
   </si>
   <si>
     <t>FBА79266</t>
+  </si>
+  <si>
+    <t>Offline B2B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,8 +688,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,8 +714,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -740,11 +755,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -822,6 +848,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3595,8 +3624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998B2A50-6942-45EF-91DE-24539BE68CC0}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4129,12 +4158,24 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="A27" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="29">
+        <v>12</v>
+      </c>
+      <c r="D27" s="29">
+        <v>23665.26</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
@@ -4153,6 +4194,7 @@
       <c r="F29" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F26" xr:uid="{998B2A50-6942-45EF-91DE-24539BE68CC0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4161,8 +4203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA2CD9B-19B0-45DA-A199-849D593B0D52}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
